--- a/branch_structure.xlsx
+++ b/branch_structure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>E2F2fF5fe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.05*NH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NHF4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,102 +221,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N2S,NS,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHS,NS,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHS2,NHS,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHG,NG,G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHG2,NHG,S,G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2F1G4gfF5fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHFS,NHS,NHF,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHFG,NHG,NHF,G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2F1G3H3hgfF3fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHS3,S2,S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structure coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numbering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Essential ions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum intensity</t>
+  </si>
+  <si>
+    <t>not essential ions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ions can't appear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH2S,HS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH2G,HG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N2S,NS,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHS,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHS,NS,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHS2,NHS,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHG,G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHG,NG,G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHSG,NHS,S,G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHSG,NHG,S,G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHG2,NHG,S,G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2F1G4gfF5fe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHFS,NHS,NHF,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHFG,NHG,NHF,G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2F1G3H3hgfF3fe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHS3,S2,S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Structure coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Branch structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Numbering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Essential ions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum intensity</t>
-  </si>
-  <si>
-    <t>not essential ions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ions can't appear</t>
+    <t>NHSG,NG,HS,S,G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHSG,NS,HG,S,G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHG,HG,G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHS,HS,S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -664,25 +670,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -713,10 +719,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -735,9 +738,6 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -750,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -767,13 +767,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -787,10 +784,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -807,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -824,13 +818,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -844,10 +835,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -864,7 +852,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -881,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -898,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -909,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -929,7 +917,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -963,7 +951,10 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1002,13 +993,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1016,13 +1007,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
